--- a/participants/participant_24/participant_24_task_orders.xlsx
+++ b/participants/participant_24/participant_24_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730799921994" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730824190032" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730824199688" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730824679692" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730825310004" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291198861876" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912041034446" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912041053865" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912041664267" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291204243387" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730799602056.csv</t>
+          <t>go_stims-16502911988338752.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730799752343.csv</t>
+          <t>GNG_stims-1650291198844903.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730799762332.csv</t>
+          <t>go_stims-16502911988468711.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730799912353.csv</t>
+          <t>GNG_stims-1650291198860906.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1649873082399001.csv</t>
+          <t>ZB-match_7-16502911990428762.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730810729716.csv</t>
+          <t>OB-16502911994673865.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498730802789705.csv</t>
+          <t>TB-1650291204086387.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498730803389673.csv</t>
+          <t>ZB-match_6-16502911991713846.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498730801392004.csv</t>
+          <t>OB-16502912002433894.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498730805649714.csv</t>
+          <t>OB-16502911998003867.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498730801572368.csv</t>
+          <t>TB-16502912007123876.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1649873081387968.csv</t>
+          <t>TB-16502912030863855.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730814879718.csv</t>
+          <t>ZB-match_4-16502911988679056.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873082435004.csv</t>
+          <t>MM_stims-1650291204119387.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730824219701.csv</t>
+          <t>ZM_stims-16502912041073887.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730824510076.csv</t>
+          <t>MM_stims-16502912041503859.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873082435969.csv</t>
+          <t>ZM_stims-16502912041203868.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730824669685.csv</t>
+          <t>MM_stims-1650291204165389.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730824519684.csv</t>
+          <t>ZM_stims-16502912041513872.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730825160055.csv</t>
+          <t>SAT_stims-16502912041703854.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730824709718.csv</t>
+          <t>vSAT_stims-16502912042114182.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873082483004.csv</t>
+          <t>SAT_stims-1650291204196385.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873082499005.csv</t>
+          <t>vSAT_stims-16502912042273886.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_24/participant_24_task_orders.xlsx
+++ b/participants/participant_24/participant_24_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291198861876" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912041034446" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912041053865" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912041664267" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291204243387" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477833149877" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477835785041" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778357869494" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477835833949" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778358969634" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911988338752.csv</t>
+          <t>go_stims-16504778331118805.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291198844903.csv</t>
+          <t>GNG_stims-1650477833132912.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911988468711.csv</t>
+          <t>go_stims-16504778331348798.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291198860906.csv</t>
+          <t>GNG_stims-16504778331489215.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502911990428762.csv</t>
+          <t>OB-16504778338639185.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502911994673865.csv</t>
+          <t>TB-165047783576395.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650291204086387.csv</t>
+          <t>ZB-match_3-16504778334088755.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911991713846.csv</t>
+          <t>OB-16504778342929108.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912002433894.csv</t>
+          <t>OB-16504778337019107.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16502911998003867.csv</t>
+          <t>TB-16504778356469853.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912007123876.csv</t>
+          <t>ZB-match_0-16504778331678789.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912030863855.csv</t>
+          <t>TB-16504778348718755.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502911988679056.csv</t>
+          <t>ZB-match_6-16504778333539119.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650291204119387.csv</t>
+          <t>MM_stims-16504778358009863.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912041073887.csv</t>
+          <t>ZM_stims-1650477835788948.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912041503859.csv</t>
+          <t>MM_stims-1650477835816987.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912041203868.csv</t>
+          <t>ZM_stims-16504778358019483.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650291204165389.csv</t>
+          <t>MM_stims-16504778358329854.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912041513872.csv</t>
+          <t>ZM_stims-1650477835817953.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912041703854.csv</t>
+          <t>SAT_stims-1650477835848955.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912042114182.csv</t>
+          <t>vSAT_stims-1650477835864985.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291204196385.csv</t>
+          <t>vSAT_stims-1650477835880985.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912042273886.csv</t>
+          <t>SAT_stims-1650477835836951.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_24/participant_24_task_orders.xlsx
+++ b/participants/participant_24/participant_24_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477833149877" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477835785041" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778357869494" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477835833949" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778358969634" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961231865957" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961253865628" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961253865628" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961254585967" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961255385635" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778331118805.csv</t>
+          <t>go_stims-16509961231545618.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477833132912.csv</t>
+          <t>GNG_stims-1650996123170602.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778331348798.csv</t>
+          <t>go_stims-1650996123170602.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778331489215.csv</t>
+          <t>GNG_stims-16509961231865957.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504778338639185.csv</t>
+          <t>OB-16509961241385598.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-165047783576395.csv</t>
+          <t>ZB-match_6-165099612336257.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504778334088755.csv</t>
+          <t>OB-16509961249946468.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778342929108.csv</t>
+          <t>ZB-match_5-16509961238825977.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504778337019107.csv</t>
+          <t>TB-1650996125218605.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778356469853.csv</t>
+          <t>OB-16509961243866117.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778331678789.csv</t>
+          <t>TB-16509961253706124.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778348718755.csv</t>
+          <t>ZB-match_1-16509961235065846.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-16504778333539119.csv</t>
+          <t>TB-16509961250346012.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778358009863.csv</t>
+          <t>MM_stims-16509961254185662.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477835788948.csv</t>
+          <t>ZM_stims-16509961253945613.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477835816987.csv</t>
+          <t>MM_stims-16509961254425964.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778358019483.csv</t>
+          <t>ZM_stims-16509961254185662.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778358329854.csv</t>
+          <t>MM_stims-16509961254585967.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477835817953.csv</t>
+          <t>ZM_stims-16509961254425964.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477835848955.csv</t>
+          <t>SAT_stims-1650996125490617.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477835864985.csv</t>
+          <t>vSAT_stims-16509961255065856.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477835880985.csv</t>
+          <t>vSAT_stims-16509961255225677.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477835836951.csv</t>
+          <t>SAT_stims-16509961254665756.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_24/participant_24_task_orders.xlsx
+++ b/participants/participant_24/participant_24_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961231865957" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961253865628" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961253865628" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961254585967" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961255385635" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168722318007" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687234797113" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687234806914" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687235428195" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687236053805" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961231545618.csv</t>
+          <t>go_stims-1651168722276814.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996123170602.csv</t>
+          <t>GNG_stims-16511687223018503.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996123170602.csv</t>
+          <t>go_stims-1651168722302853.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961231865957.csv</t>
+          <t>GNG_stims-16511687223170378.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961241385598.csv</t>
+          <t>TB-16511687233618898.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-165099612336257.csv</t>
+          <t>ZB-match_4-16511687225956082.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509961249946468.csv</t>
+          <t>TB-16511687234641037.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961238825977.csv</t>
+          <t>ZB-match_2-1651168722330717.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650996125218605.csv</t>
+          <t>OB-16511687231213024.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509961243866117.csv</t>
+          <t>TB-16511687233939748.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509961253706124.csv</t>
+          <t>OB-165116872280387.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_1-16509961235065846.csv</t>
+          <t>OB-16511687230825295.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961250346012.csv</t>
+          <t>ZB-match_1-1651168722472173.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961254185662.csv</t>
+          <t>MM_stims-16511687235111825.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961253945613.csv</t>
+          <t>ZM_stims-16511687234844882.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961254425964.csv</t>
+          <t>MM_stims-16511687235268407.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961254185662.csv</t>
+          <t>ZM_stims-16511687235111825.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961254585967.csv</t>
+          <t>MM_stims-16511687235428195.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961254425964.csv</t>
+          <t>ZM_stims-16511687235278168.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996125490617.csv</t>
+          <t>SAT_stims-165116872355821.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961255065856.csv</t>
+          <t>vSAT_stims-16511687235735846.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961255225677.csv</t>
+          <t>SAT_stims-16511687235477664.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961254665756.csv</t>
+          <t>vSAT_stims-1651168723590659.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_24/participant_24_task_orders.xlsx
+++ b/participants/participant_24/participant_24_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168722318007" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687234797113" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687234806914" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687235428195" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687236053805" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555473261945" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555494852378" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555494872408" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651255549533237" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555496102386" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168722276814.csv</t>
+          <t>go_stims-1651255547295194.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687223018503.csv</t>
+          <t>GNG_stims-16512555473081934.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168722302853.csv</t>
+          <t>go_stims-1651255547310194.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687223170378.csv</t>
+          <t>GNG_stims-1651255547325203.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687233618898.csv</t>
+          <t>OB-16512555477472394.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511687225956082.csv</t>
+          <t>ZB-match_6-16512555476032395.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511687234641037.csv</t>
+          <t>ZB-match_5-16512555476952374.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_2-1651168722330717.csv</t>
+          <t>TB-16512555494632428.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511687231213024.csv</t>
+          <t>TB-1651255549429237.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511687233939748.csv</t>
+          <t>ZB-match_5-16512555475042367.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-165116872280387.csv</t>
+          <t>OB-16512555487702377.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16511687230825295.csv</t>
+          <t>OB-1651255548212238.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651168722472173.csv</t>
+          <t>TB-16512555491082363.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687235111825.csv</t>
+          <t>MM_stims-1651255549500239.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687234844882.csv</t>
+          <t>ZM_stims-1651255549489237.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687235268407.csv</t>
+          <t>MM_stims-1651255549516238.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687235111825.csv</t>
+          <t>ZM_stims-1651255549501238.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687235428195.csv</t>
+          <t>MM_stims-16512555495322378.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687235278168.csv</t>
+          <t>ZM_stims-1651255549517237.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-165116872355821.csv</t>
+          <t>SAT_stims-16512555495632381.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687235735846.csv</t>
+          <t>SAT_stims-16512555495382383.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687235477664.csv</t>
+          <t>vSAT_stims-16512555495782382.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168723590659.csv</t>
+          <t>vSAT_stims-1651255549595238.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_24/participant_24_task_orders.xlsx
+++ b/participants/participant_24/participant_24_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555473261945" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555494852378" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555494872408" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651255549533237" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555496102386" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889787430806" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651588982975034" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TOL_TO-16515889830250244" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889830300279" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515889830890281" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651255547295194.csv</t>
+          <t>vSAT_stims-1651588978727455.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555473081934.csv</t>
+          <t>SAT_stims-16515889786806288.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255547310194.csv</t>
+          <t>vSAT_stims-16515889787118285.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255547325203.csv</t>
+          <t>SAT_stims-1651588978696205.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512555477472394.csv</t>
+          <t>OB-1651588979901315.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512555476032395.csv</t>
+          <t>ZB-match_2-16515889792693005.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512555476952374.csv</t>
+          <t>TB-16515889820653048.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555494632428.csv</t>
+          <t>TB-16515889812450137.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1651255549429237.csv</t>
+          <t>OB-1651588979303258.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512555475042367.csv</t>
+          <t>ZB-match_7-16515889789857557.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512555487702377.csv</t>
+          <t>OB-1651588980028435.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651255548212238.csv</t>
+          <t>ZB-match_9-16515889792380462.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16512555491082363.csv</t>
+          <t>TB-16515889829559257.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +606,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889829919035.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889829790158.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889830079005.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889829939015.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889830230262.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889830089815.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +718,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,93 +728,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255549500239.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255549489237.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255549516238.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255549501238.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555495322378.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255549517237.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555495632381.csv</t>
+          <t>go_stims-1651588983036026.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555495382383.csv</t>
+          <t>GNG_stims-16515889830570376.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555495782382.csv</t>
+          <t>go_stims-1651588983059028.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255549595238.csv</t>
+          <t>GNG_stims-16515889830870447.csv</t>
         </is>
       </c>
     </row>
